--- a/MigracionPacientes.xlsx
+++ b/MigracionPacientes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Punto Com 2017\Proyectos\Odontologia3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Cedula</t>
   </si>
@@ -43,6 +43,57 @@
   </si>
   <si>
     <t>Celular</t>
+  </si>
+  <si>
+    <t>12547878</t>
+  </si>
+  <si>
+    <t>36542035</t>
+  </si>
+  <si>
+    <t>56987333</t>
+  </si>
+  <si>
+    <t>10205470</t>
+  </si>
+  <si>
+    <t>dsdsd</t>
+  </si>
+  <si>
+    <t>sdsds</t>
+  </si>
+  <si>
+    <t>dsdfd</t>
+  </si>
+  <si>
+    <t>fddfdf</t>
+  </si>
+  <si>
+    <t>dfdfdf</t>
+  </si>
+  <si>
+    <t>fhjhhjhj</t>
+  </si>
+  <si>
+    <t>rt454</t>
+  </si>
+  <si>
+    <t>trfg</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>gfgfgfgbvbvb</t>
+  </si>
+  <si>
+    <t>121fdfgf</t>
+  </si>
+  <si>
+    <t>10/02/1982</t>
+  </si>
+  <si>
+    <t>31137361</t>
   </si>
 </sst>
 </file>
@@ -103,12 +154,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,86 +444,136 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
